--- a/docs/shrcore/shr-core-AdverseDrugReaction-model.xlsx
+++ b/docs/shrcore/shr-core-AdverseDrugReaction-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="125">
   <si>
     <t>Path</t>
   </si>
@@ -333,7 +333,7 @@
     <t>http://hl7.org/fhir/ValueSet/adverse-event-outcome</t>
   </si>
   <si>
-    <t>shr-core-AdverseDrugReaction-model.humanAuthor[x]</t>
+    <t>shr-core-AdverseDrugReaction-model.personAuthor[x]</t>
   </si>
   <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson-model]]}
@@ -350,11 +350,7 @@
 </t>
   </si>
   <si>
-    <t>An entity (usually a Practitioner, Patient, or Organization but potentially a device or other entity) that participates in a healthcare task or activity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1550369
-</t>
+    <t>An entity (usually a Practitioner, Patient, or Organization but potentially a device or other entity) that participates in a healthcare task or activity. The participant is not necessarily the performer, and the role (ParticipationType), the ParticipationPeriod, and other details of the participation are by the Participation structure.</t>
   </si>
   <si>
     <t>shr-core-AdverseDrugReaction-model.potentialCause</t>
@@ -561,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AI29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2804,7 +2800,7 @@
         <v>36</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>36</v>
@@ -2836,7 +2832,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -2859,13 +2855,13 @@
         <v>36</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2916,7 +2912,7 @@
         <v>36</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -2933,7 +2929,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -2956,13 +2952,13 @@
         <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="L25" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3013,7 +3009,7 @@
         <v>36</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3030,7 +3026,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3056,10 +3052,10 @@
         <v>45</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3090,7 +3086,7 @@
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>36</v>
@@ -3108,7 +3104,7 @@
         <v>36</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3125,7 +3121,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3151,10 +3147,10 @@
         <v>45</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3185,7 +3181,7 @@
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>36</v>
@@ -3203,7 +3199,7 @@
         <v>36</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3220,7 +3216,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3243,13 +3239,13 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="L28" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3300,7 +3296,7 @@
         <v>36</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>37</v>
@@ -3317,7 +3313,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3340,13 +3336,13 @@
         <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="L29" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3397,7 +3393,7 @@
         <v>36</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>37</v>
